--- a/excel_files/9.3.1.xlsx
+++ b/excel_files/9.3.1.xlsx
@@ -167,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,17 +208,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -527,9 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1173,14 +1178,14 @@
     <col min="16140" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="16"/>
@@ -1189,17 +1194,17 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9"/>
@@ -1213,7 +1218,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1227,8 +1232,9 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1268,8 +1274,11 @@
       <c r="M4" s="3">
         <v>2019</v>
       </c>
+      <c r="N4" s="3">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1307,10 +1316,13 @@
         <v>1.7</v>
       </c>
       <c r="M5" s="5">
-        <v>1.7</v>
+        <v>1.6</v>
+      </c>
+      <c r="N5" s="22">
+        <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
@@ -1324,7 +1336,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1336,17 +1348,17 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:14" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="G11" s="15"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L14" s="10" t="s">
         <v>8</v>
       </c>

--- a/excel_files/9.3.1.xlsx
+++ b/excel_files/9.3.1.xlsx
@@ -217,11 +217,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1178,7 @@
     <col min="16140" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -1194,10 +1194,10 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1233,8 +1233,9 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1277,8 +1278,11 @@
       <c r="N4" s="3">
         <v>2020</v>
       </c>
+      <c r="O4" s="3">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1313,16 +1317,19 @@
         <v>1.7</v>
       </c>
       <c r="L5" s="5">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M5" s="5">
         <v>1.6</v>
       </c>
-      <c r="N5" s="22">
-        <v>1.6</v>
+      <c r="N5" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="O5" s="21">
+        <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
@@ -1336,7 +1343,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1348,17 +1355,17 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:14" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:14" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="12" x14ac:dyDescent="0.2">
       <c r="G11" s="15"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L14" s="10" t="s">
         <v>8</v>
       </c>

--- a/excel_files/9.3.1.xlsx
+++ b/excel_files/9.3.1.xlsx
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1178,7 @@
     <col min="16140" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1234,8 +1234,9 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1281,8 +1282,11 @@
       <c r="O4" s="3">
         <v>2021</v>
       </c>
+      <c r="P4" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1320,16 +1324,19 @@
         <v>1.6</v>
       </c>
       <c r="M5" s="5">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N5" s="21">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O5" s="21">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
+      </c>
+      <c r="P5" s="21">
+        <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
@@ -1343,7 +1350,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="12" x14ac:dyDescent="0.2">
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1355,17 +1362,17 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:15" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:16" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:16" ht="12" x14ac:dyDescent="0.2">
       <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="12" x14ac:dyDescent="0.2">
       <c r="G11" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L14" s="10" t="s">
         <v>8</v>
       </c>

--- a/excel_files/9.3.1.xlsx
+++ b/excel_files/9.3.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>9.3.1 Proportion of small-scale industries in total industry value added</t>
   </si>
@@ -53,6 +53,75 @@
   </si>
   <si>
     <t>Өнөр жай өндүрүшүнүн кошумча дүң наркынын чакан ишканаларындагы үлүшү</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2019-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Данные с 2019 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2019 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -63,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +192,19 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,13 +243,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,8 +306,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Normal_GDP1" xfId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Обычный 3" xfId="3"/>
@@ -530,13 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="37" style="10" customWidth="1"/>
     <col min="4" max="4" width="10" style="10" customWidth="1"/>
@@ -1178,7 +1266,7 @@
     <col min="16140" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="36.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1285,7 @@
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="14.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1306,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1235,8 +1323,9 @@
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1285,8 +1374,11 @@
       <c r="P4" s="3">
         <v>2022</v>
       </c>
+      <c r="Q4" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1324,21 +1416,31 @@
         <v>1.6</v>
       </c>
       <c r="M5" s="5">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="N5" s="21">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="21">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P5" s="21">
-        <v>2.6</v>
+        <v>1.5</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+    <row r="6" spans="1:17" ht="36" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1350,7 +1452,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12">
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1362,17 +1464,17 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:16" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:16" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:16" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12"/>
+    <row r="9" spans="1:17" ht="12"/>
+    <row r="10" spans="1:17" ht="12">
       <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="12">
       <c r="G11" s="15"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="L14" s="10" t="s">
         <v>8</v>
       </c>
